--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>140.994512080744</v>
+        <v>148.9466983333333</v>
       </c>
       <c r="H2">
-        <v>140.994512080744</v>
+        <v>446.840095</v>
       </c>
       <c r="I2">
-        <v>0.5321978442273798</v>
+        <v>0.5255511750002251</v>
       </c>
       <c r="J2">
-        <v>0.5321978442273798</v>
+        <v>0.5255511750002251</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N2">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q2">
-        <v>22929.02985078334</v>
+        <v>25265.74473023887</v>
       </c>
       <c r="R2">
-        <v>22929.02985078334</v>
+        <v>227391.7025721498</v>
       </c>
       <c r="S2">
-        <v>0.4024005642188249</v>
+        <v>0.3903992427549104</v>
       </c>
       <c r="T2">
-        <v>0.4024005642188249</v>
+        <v>0.3903992427549106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>140.994512080744</v>
+        <v>148.9466983333333</v>
       </c>
       <c r="H3">
-        <v>140.994512080744</v>
+        <v>446.840095</v>
       </c>
       <c r="I3">
-        <v>0.5321978442273798</v>
+        <v>0.5255511750002251</v>
       </c>
       <c r="J3">
-        <v>0.5321978442273798</v>
+        <v>0.5255511750002251</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q3">
-        <v>131.7282931740555</v>
+        <v>146.6939788188406</v>
       </c>
       <c r="R3">
-        <v>131.7282931740555</v>
+        <v>1320.245809369565</v>
       </c>
       <c r="S3">
-        <v>0.0023118090840207</v>
+        <v>0.0022666744582058</v>
       </c>
       <c r="T3">
-        <v>0.0023118090840207</v>
+        <v>0.0022666744582058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>140.994512080744</v>
+        <v>148.9466983333333</v>
       </c>
       <c r="H4">
-        <v>140.994512080744</v>
+        <v>446.840095</v>
       </c>
       <c r="I4">
-        <v>0.5321978442273798</v>
+        <v>0.5255511750002251</v>
       </c>
       <c r="J4">
-        <v>0.5321978442273798</v>
+        <v>0.5255511750002251</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N4">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q4">
-        <v>7046.666947993749</v>
+        <v>8135.580670883814</v>
       </c>
       <c r="R4">
-        <v>7046.666947993749</v>
+        <v>73220.22603795433</v>
       </c>
       <c r="S4">
-        <v>0.1236678033998004</v>
+        <v>0.125708724092476</v>
       </c>
       <c r="T4">
-        <v>0.1236678033998004</v>
+        <v>0.125708724092476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.994512080744</v>
+        <v>148.9466983333333</v>
       </c>
       <c r="H5">
-        <v>140.994512080744</v>
+        <v>446.840095</v>
       </c>
       <c r="I5">
-        <v>0.5321978442273798</v>
+        <v>0.5255511750002251</v>
       </c>
       <c r="J5">
-        <v>0.5321978442273798</v>
+        <v>0.5255511750002251</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N5">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q5">
-        <v>217.5330265873725</v>
+        <v>464.4488219214639</v>
       </c>
       <c r="R5">
-        <v>217.5330265873725</v>
+        <v>4180.039397293175</v>
       </c>
       <c r="S5">
-        <v>0.003817667524733795</v>
+        <v>0.007176533694632778</v>
       </c>
       <c r="T5">
-        <v>0.003817667524733795</v>
+        <v>0.007176533694632778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>102.65444634083</v>
+        <v>103.6567713333333</v>
       </c>
       <c r="H6">
-        <v>102.65444634083</v>
+        <v>310.970314</v>
       </c>
       <c r="I6">
-        <v>0.3874794432542051</v>
+        <v>0.3657478720948015</v>
       </c>
       <c r="J6">
-        <v>0.3874794432542051</v>
+        <v>0.3657478720948015</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N6">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q6">
-        <v>16694.0317727869</v>
+        <v>17583.23986616785</v>
       </c>
       <c r="R6">
-        <v>16694.0317727869</v>
+        <v>158249.1587955106</v>
       </c>
       <c r="S6">
-        <v>0.292977411088631</v>
+        <v>0.2716913196987319</v>
       </c>
       <c r="T6">
-        <v>0.292977411088631</v>
+        <v>0.271691319698732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>102.65444634083</v>
+        <v>103.6567713333333</v>
       </c>
       <c r="H7">
-        <v>102.65444634083</v>
+        <v>310.970314</v>
       </c>
       <c r="I7">
-        <v>0.3874794432542051</v>
+        <v>0.3657478720948015</v>
       </c>
       <c r="J7">
-        <v>0.3874794432542051</v>
+        <v>0.3657478720948015</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q7">
-        <v>95.90795275394277</v>
+        <v>102.0890317714309</v>
       </c>
       <c r="R7">
-        <v>95.90795275394277</v>
+        <v>918.8012859428782</v>
       </c>
       <c r="S7">
-        <v>0.001683168217426368</v>
+        <v>0.001577451253572126</v>
       </c>
       <c r="T7">
-        <v>0.001683168217426368</v>
+        <v>0.001577451253572126</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>102.65444634083</v>
+        <v>103.6567713333333</v>
       </c>
       <c r="H8">
-        <v>102.65444634083</v>
+        <v>310.970314</v>
       </c>
       <c r="I8">
-        <v>0.3874794432542051</v>
+        <v>0.3657478720948015</v>
       </c>
       <c r="J8">
-        <v>0.3874794432542051</v>
+        <v>0.3657478720948015</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N8">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q8">
-        <v>5130.495388928812</v>
+        <v>5661.81080011871</v>
       </c>
       <c r="R8">
-        <v>5130.495388928812</v>
+        <v>50956.29720106839</v>
       </c>
       <c r="S8">
-        <v>0.0900393192674265</v>
+        <v>0.08748472180764494</v>
       </c>
       <c r="T8">
-        <v>0.0900393192674265</v>
+        <v>0.08748472180764494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>102.65444634083</v>
+        <v>103.6567713333333</v>
       </c>
       <c r="H9">
-        <v>102.65444634083</v>
+        <v>310.970314</v>
       </c>
       <c r="I9">
-        <v>0.3874794432542051</v>
+        <v>0.3657478720948015</v>
       </c>
       <c r="J9">
-        <v>0.3874794432542051</v>
+        <v>0.3657478720948015</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N9">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q9">
-        <v>158.3801530685359</v>
+        <v>323.2247902683123</v>
       </c>
       <c r="R9">
-        <v>158.3801530685359</v>
+        <v>2909.02311241481</v>
       </c>
       <c r="S9">
-        <v>0.002779544680721213</v>
+        <v>0.004994379334852517</v>
       </c>
       <c r="T9">
-        <v>0.002779544680721213</v>
+        <v>0.004994379334852517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9909695170257889</v>
+        <v>1.087957333333333</v>
       </c>
       <c r="H10">
-        <v>0.9909695170257889</v>
+        <v>3.263872</v>
       </c>
       <c r="I10">
-        <v>0.003740513250289832</v>
+        <v>0.003838804493697762</v>
       </c>
       <c r="J10">
-        <v>0.003740513250289832</v>
+        <v>0.003838804493697762</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N10">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q10">
-        <v>161.1549932105752</v>
+        <v>184.549591021312</v>
       </c>
       <c r="R10">
-        <v>161.1549932105752</v>
+        <v>1660.946319191808</v>
       </c>
       <c r="S10">
-        <v>0.002828242652071949</v>
+        <v>0.00285160882272428</v>
       </c>
       <c r="T10">
-        <v>0.002828242652071949</v>
+        <v>0.00285160882272428</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9909695170257889</v>
+        <v>1.087957333333333</v>
       </c>
       <c r="H11">
-        <v>0.9909695170257889</v>
+        <v>3.263872</v>
       </c>
       <c r="I11">
-        <v>0.003740513250289832</v>
+        <v>0.003838804493697762</v>
       </c>
       <c r="J11">
-        <v>0.003740513250289832</v>
+        <v>0.003838804493697762</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q11">
-        <v>0.9258425816642362</v>
+        <v>1.071502703971556</v>
       </c>
       <c r="R11">
-        <v>0.9258425816642362</v>
+        <v>9.643524335744001</v>
       </c>
       <c r="S11">
-        <v>1.624837944143433E-05</v>
+        <v>1.65565610159784E-05</v>
       </c>
       <c r="T11">
-        <v>1.624837944143433E-05</v>
+        <v>1.65565610159784E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9909695170257889</v>
+        <v>1.087957333333333</v>
       </c>
       <c r="H12">
-        <v>0.9909695170257889</v>
+        <v>3.263872</v>
       </c>
       <c r="I12">
-        <v>0.003740513250289832</v>
+        <v>0.003838804493697762</v>
       </c>
       <c r="J12">
-        <v>0.003740513250289832</v>
+        <v>0.003838804493697762</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N12">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q12">
-        <v>49.52697831314136</v>
+        <v>59.42504769058134</v>
       </c>
       <c r="R12">
-        <v>49.52697831314136</v>
+        <v>534.825429215232</v>
       </c>
       <c r="S12">
-        <v>0.0008691900244781059</v>
+        <v>0.0009182192675014043</v>
       </c>
       <c r="T12">
-        <v>0.0008691900244781059</v>
+        <v>0.0009182192675014042</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9909695170257889</v>
+        <v>1.087957333333333</v>
       </c>
       <c r="H13">
-        <v>0.9909695170257889</v>
+        <v>3.263872</v>
       </c>
       <c r="I13">
-        <v>0.003740513250289832</v>
+        <v>0.003838804493697762</v>
       </c>
       <c r="J13">
-        <v>0.003740513250289832</v>
+        <v>0.003838804493697762</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N13">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O13">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P13">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q13">
-        <v>1.528914814578002</v>
+        <v>3.39249212920889</v>
       </c>
       <c r="R13">
-        <v>1.528914814578002</v>
+        <v>30.53242916288</v>
       </c>
       <c r="S13">
-        <v>2.683219429834226E-05</v>
+        <v>5.241984245609938E-05</v>
       </c>
       <c r="T13">
-        <v>2.683219429834226E-05</v>
+        <v>5.241984245609938E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.2888266778968</v>
+        <v>29.71902933333333</v>
       </c>
       <c r="H14">
-        <v>20.2888266778968</v>
+        <v>89.15708799999999</v>
       </c>
       <c r="I14">
-        <v>0.07658219926812526</v>
+        <v>0.1048621484112755</v>
       </c>
       <c r="J14">
-        <v>0.07658219926812526</v>
+        <v>0.1048621484112755</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N14">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O14">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P14">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q14">
-        <v>3299.441273774223</v>
+        <v>5041.222243718847</v>
       </c>
       <c r="R14">
-        <v>3299.441273774223</v>
+        <v>45371.00019346963</v>
       </c>
       <c r="S14">
-        <v>0.05790463176217929</v>
+        <v>0.07789556047210336</v>
       </c>
       <c r="T14">
-        <v>0.05790463176217929</v>
+        <v>0.07789556047210337</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.2888266778968</v>
+        <v>29.71902933333333</v>
       </c>
       <c r="H15">
-        <v>20.2888266778968</v>
+        <v>89.15708799999999</v>
       </c>
       <c r="I15">
-        <v>0.07658219926812526</v>
+        <v>0.1048621484112755</v>
       </c>
       <c r="J15">
-        <v>0.07658219926812526</v>
+        <v>0.1048621484112755</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N15">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O15">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P15">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q15">
-        <v>18.95543641622768</v>
+        <v>29.26954882735289</v>
       </c>
       <c r="R15">
-        <v>18.95543641622768</v>
+        <v>263.425939446176</v>
       </c>
       <c r="S15">
-        <v>0.0003326646769856027</v>
+        <v>0.0004522649072877107</v>
       </c>
       <c r="T15">
-        <v>0.0003326646769856027</v>
+        <v>0.0004522649072877107</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.2888266778968</v>
+        <v>29.71902933333333</v>
       </c>
       <c r="H16">
-        <v>20.2888266778968</v>
+        <v>89.15708799999999</v>
       </c>
       <c r="I16">
-        <v>0.07658219926812526</v>
+        <v>0.1048621484112755</v>
       </c>
       <c r="J16">
-        <v>0.07658219926812526</v>
+        <v>0.1048621484112755</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N16">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O16">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P16">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q16">
-        <v>1014.001199442675</v>
+        <v>1623.275730896725</v>
       </c>
       <c r="R16">
-        <v>1014.001199442675</v>
+        <v>14609.48157807053</v>
       </c>
       <c r="S16">
-        <v>0.01779554815139106</v>
+        <v>0.02508240397782702</v>
       </c>
       <c r="T16">
-        <v>0.01779554815139106</v>
+        <v>0.02508240397782702</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.2888266778968</v>
+        <v>29.71902933333333</v>
       </c>
       <c r="H17">
-        <v>20.2888266778968</v>
+        <v>89.15708799999999</v>
       </c>
       <c r="I17">
-        <v>0.07658219926812526</v>
+        <v>0.1048621484112755</v>
       </c>
       <c r="J17">
-        <v>0.07658219926812526</v>
+        <v>0.1048621484112755</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N17">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O17">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P17">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q17">
-        <v>31.30256495814548</v>
+        <v>92.67052117950222</v>
       </c>
       <c r="R17">
-        <v>31.30256495814548</v>
+        <v>834.0346906155199</v>
       </c>
       <c r="S17">
-        <v>0.0005493546775693098</v>
+        <v>0.001431919054057447</v>
       </c>
       <c r="T17">
-        <v>0.0005493546775693098</v>
+        <v>0.001431919054057447</v>
       </c>
     </row>
   </sheetData>
